--- a/upload/excel/2505_성천초_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2505_성천초_발주서_이가에프엔비_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AI26"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -756,6 +757,11 @@
       <c r="AI5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -826,6 +832,9 @@
         <is>
           <t>9</t>
         </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="7">
@@ -896,6 +905,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AJ7" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -964,6 +976,9 @@
         <is>
           <t>7</t>
         </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13000</v>
       </c>
     </row>
     <row r="9">
@@ -1034,6 +1049,9 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AJ9" t="n">
+        <v>16000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1103,6 +1121,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AJ10" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1171,6 +1192,9 @@
         <is>
           <t>1.5</t>
         </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12800</v>
       </c>
     </row>
     <row r="12">
@@ -1241,6 +1265,9 @@
           <t>1.7</t>
         </is>
       </c>
+      <c r="AJ12" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
@@ -1309,6 +1336,9 @@
         <is>
           <t>26</t>
         </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>23000</v>
       </c>
     </row>
     <row r="14">
@@ -1378,6 +1408,9 @@
         <is>
           <t>8</t>
         </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="15">
@@ -1448,6 +1481,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AJ15" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
@@ -1517,6 +1553,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AJ16" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -1585,6 +1624,9 @@
         <is>
           <t>1.5</t>
         </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="18">
@@ -1655,6 +1697,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AJ18" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
@@ -1724,6 +1769,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AJ19" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1793,6 +1841,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AJ20" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1870,6 +1921,9 @@
           <t>6.4</t>
         </is>
       </c>
+      <c r="AJ21" t="n">
+        <v>35000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1939,6 +1993,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AJ22" t="n">
+        <v>35000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -2007,6 +2064,9 @@
         <is>
           <t>2</t>
         </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="24">
@@ -2081,6 +2141,9 @@
           <t>10.5</t>
         </is>
       </c>
+      <c r="AJ24" t="n">
+        <v>33000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2150,6 +2213,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AJ25" t="n">
+        <v>32000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr"/>
